--- a/rhla_analysis/rhla1_6_uniform_result/k6.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k6.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00353006374590997</v>
+        <v>0.003284906032830547</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09964087010498783</v>
+        <v>0.09987891681419987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2080136402387042</v>
+        <v>0.1612355736591989</v>
       </c>
       <c r="D2" t="n">
-        <v>28.22636566278286</v>
+        <v>30.40541063152907</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002338898413678455</v>
+        <v>0.002135712437202245</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08590322158760899</v>
+        <v>0.08622253213429767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1999147485080989</v>
+        <v>0.148336727766463</v>
       </c>
       <c r="D3" t="n">
-        <v>36.72806868619251</v>
+        <v>40.37178911934794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003462776912631413</v>
+        <v>0.002907880586357754</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08630624431413313</v>
+        <v>0.08567730383953091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1969309462915601</v>
+        <v>0.1479972844534963</v>
       </c>
       <c r="D4" t="n">
-        <v>24.92399784673042</v>
+        <v>29.46383157598828</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002897136015353444</v>
+        <v>0.0033029010847062</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08502120867679119</v>
+        <v>0.08535068567018243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1901108269394714</v>
+        <v>0.1415478615071283</v>
       </c>
       <c r="D5" t="n">
-        <v>29.34664034626583</v>
+        <v>25.84112677954282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.003383691915126413</v>
+        <v>0.003527089306696918</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09539171095084388</v>
+        <v>0.09527867540782435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1896845694799659</v>
+        <v>0.143245078071962</v>
       </c>
       <c r="D6" t="n">
-        <v>28.19160648887861</v>
+        <v>27.01340032046192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001508091416993417</v>
+        <v>0.001145054507468708</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09149528887332069</v>
+        <v>0.0915342653792303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2301790281329923</v>
+        <v>0.1768499660556687</v>
       </c>
       <c r="D7" t="n">
-        <v>60.66959061124348</v>
+        <v>79.93878438291875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0046318046440853</v>
+        <v>0.004719103916013475</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08408894523539499</v>
+        <v>0.08354900797110404</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2071611253196931</v>
+        <v>0.1513917175831636</v>
       </c>
       <c r="D8" t="n">
-        <v>18.15468304406459</v>
+        <v>17.70442216531717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001921925449268839</v>
+        <v>0.002065128491098231</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08491889364530636</v>
+        <v>0.08527742669027422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.210997442455243</v>
+        <v>0.1663272233536999</v>
       </c>
       <c r="D9" t="n">
-        <v>44.18428075741032</v>
+        <v>41.29400521946402</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00303403700181696</v>
+        <v>0.002792656522032621</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08741300247675111</v>
+        <v>0.08685835534895936</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1935208866155158</v>
+        <v>0.1422267481330618</v>
       </c>
       <c r="D10" t="n">
-        <v>28.8107898566837</v>
+        <v>31.10241258231784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003084259030477426</v>
+        <v>0.002954072591969931</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08743140482342479</v>
+        <v>0.08744762366522565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2148337595907928</v>
+        <v>0.158520027155465</v>
       </c>
       <c r="D11" t="n">
-        <v>28.34762059848485</v>
+        <v>29.60239497937015</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k6.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k6.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.003284906032830547</v>
+        <v>0.003284906032830545</v>
       </c>
       <c r="B2" t="n">
         <v>0.09987891681419987</v>
@@ -466,12 +466,12 @@
         <v>0.1612355736591989</v>
       </c>
       <c r="D2" t="n">
-        <v>30.40541063152907</v>
+        <v>30.40541063152908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002135712437202245</v>
+        <v>0.002135712437202247</v>
       </c>
       <c r="B3" t="n">
         <v>0.08622253213429767</v>
@@ -480,12 +480,12 @@
         <v>0.148336727766463</v>
       </c>
       <c r="D3" t="n">
-        <v>40.37178911934794</v>
+        <v>40.37178911934791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002907880586357754</v>
+        <v>0.002907880586357761</v>
       </c>
       <c r="B4" t="n">
         <v>0.08567730383953091</v>
@@ -494,12 +494,12 @@
         <v>0.1479972844534963</v>
       </c>
       <c r="D4" t="n">
-        <v>29.46383157598828</v>
+        <v>29.46383157598821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0033029010847062</v>
+        <v>0.003302901084706194</v>
       </c>
       <c r="B5" t="n">
         <v>0.08535068567018243</v>
@@ -508,12 +508,12 @@
         <v>0.1415478615071283</v>
       </c>
       <c r="D5" t="n">
-        <v>25.84112677954282</v>
+        <v>25.84112677954287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.003527089306696918</v>
+        <v>0.003527089306696966</v>
       </c>
       <c r="B6" t="n">
         <v>0.09527867540782435</v>
@@ -522,26 +522,26 @@
         <v>0.143245078071962</v>
       </c>
       <c r="D6" t="n">
-        <v>27.01340032046192</v>
+        <v>27.01340032046156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001145054507468708</v>
+        <v>0.001145054507468707</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0915342653792303</v>
+        <v>0.09153426537923029</v>
       </c>
       <c r="C7" t="n">
         <v>0.1768499660556687</v>
       </c>
       <c r="D7" t="n">
-        <v>79.93878438291875</v>
+        <v>79.9387843829188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004719103916013475</v>
+        <v>0.00471910391601342</v>
       </c>
       <c r="B8" t="n">
         <v>0.08354900797110404</v>
@@ -550,49 +550,49 @@
         <v>0.1513917175831636</v>
       </c>
       <c r="D8" t="n">
-        <v>17.70442216531717</v>
+        <v>17.70442216531738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002065128491098231</v>
+        <v>0.002065128491098232</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08527742669027422</v>
+        <v>0.08527742669027423</v>
       </c>
       <c r="C9" t="n">
         <v>0.1663272233536999</v>
       </c>
       <c r="D9" t="n">
-        <v>41.29400521946402</v>
+        <v>41.29400521946401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002792656522032621</v>
+        <v>0.002792656522032601</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08685835534895936</v>
+        <v>0.08685835534895935</v>
       </c>
       <c r="C10" t="n">
         <v>0.1422267481330618</v>
       </c>
       <c r="D10" t="n">
-        <v>31.10241258231784</v>
+        <v>31.10241258231805</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002954072591969931</v>
+        <v>0.002954072591969926</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08744762366522565</v>
+        <v>0.08744762366522567</v>
       </c>
       <c r="C11" t="n">
         <v>0.158520027155465</v>
       </c>
       <c r="D11" t="n">
-        <v>29.60239497937015</v>
+        <v>29.60239497937021</v>
       </c>
     </row>
   </sheetData>
